--- a/数据初整理.xlsx
+++ b/数据初整理.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikezhu/Desktop/研究生/IEEE数据比赛/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DED006-8A7E-C140-B312-02AABC73D902}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36536354-758A-D34C-9456-8190FA76147E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{3BE47342-E103-EA4A-A951-CAE90A9A2571}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{3BE47342-E103-EA4A-A951-CAE90A9A2571}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="数据分类" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$313</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">data!$C$2</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="387">
   <si>
     <t>文件名</t>
   </si>
@@ -1150,6 +1155,42 @@
   </si>
   <si>
     <t>类别非常混乱</t>
+  </si>
+  <si>
+    <t>财务类</t>
+  </si>
+  <si>
+    <t>年报类</t>
+  </si>
+  <si>
+    <t>软资产类</t>
+  </si>
+  <si>
+    <t>纳税类</t>
+  </si>
+  <si>
+    <t>基本信息类</t>
+  </si>
+  <si>
+    <t>竞品类</t>
+  </si>
+  <si>
+    <t>地产类</t>
+  </si>
+  <si>
+    <t>工商基本信息表</t>
+  </si>
+  <si>
+    <t>购地-市场交易-土地抵押</t>
+  </si>
+  <si>
+    <t>购地-市场交易-土地转让</t>
+  </si>
+  <si>
+    <t>上市信息财务信息盈利能力指标</t>
+  </si>
+  <si>
+    <t>购地-房地产大地块出让情况</t>
   </si>
 </sst>
 </file>
@@ -1552,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40D44E9-06E2-DB40-B9B9-9DBA63BF525D}">
   <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3472,7 +3513,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="36">
+    <row r="155" spans="1:2" ht="18">
       <c r="A155" t="s">
         <v>186</v>
       </c>
@@ -3488,7 +3529,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="36">
+    <row r="157" spans="1:2" ht="18">
       <c r="A157" t="s">
         <v>186</v>
       </c>
@@ -3496,7 +3537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="36">
+    <row r="158" spans="1:2" ht="18">
       <c r="A158" t="s">
         <v>186</v>
       </c>
@@ -3512,7 +3553,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="36">
+    <row r="160" spans="1:2" ht="18">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -3528,7 +3569,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="36">
+    <row r="162" spans="1:7" ht="18">
       <c r="A162" t="s">
         <v>186</v>
       </c>
@@ -3536,7 +3577,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="36">
+    <row r="163" spans="1:7" ht="18">
       <c r="A163" t="s">
         <v>186</v>
       </c>
@@ -3893,7 +3934,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="36">
+    <row r="199" spans="1:5" ht="18">
       <c r="A199" t="s">
         <v>244</v>
       </c>
@@ -3901,7 +3942,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="36">
+    <row r="200" spans="1:5" ht="18">
       <c r="A200" t="s">
         <v>244</v>
       </c>
@@ -3909,7 +3950,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="36">
+    <row r="201" spans="1:5" ht="18">
       <c r="A201" t="s">
         <v>244</v>
       </c>
@@ -4835,6 +4876,182 @@
       </c>
       <c r="B313" s="6" t="s">
         <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G313" xr:uid="{CA74FAF6-8126-624B-A30E-E531554D2789}"/>
+  <dataConsolidate/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8565D9-11AA-8545-9FBD-DE2E92F181C9}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/数据初整理.xlsx
+++ b/数据初整理.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikezhu/Desktop/研究生/IEEE数据比赛/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36536354-758A-D34C-9456-8190FA76147E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E6BDA4-6974-7046-A427-BCDD1BAC0FAB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{3BE47342-E103-EA4A-A951-CAE90A9A2571}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="数据分类" sheetId="2" r:id="rId2"/>
+    <sheet name="categorize" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$313</definedName>
